--- a/default.xlsx
+++ b/default.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leemc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leemc\Desktop\winter_project\winter_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688E1A97-B4AA-4C84-9734-BDF7B2BE5608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2A706-5831-4201-B202-17A0FCB31AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6481C0E-EF3D-4FD9-AA7F-237F671F16F5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D6481C0E-EF3D-4FD9-AA7F-237F671F16F5}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{518CDE2E-E14B-4396-B323-9C3B97ABA102}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{2314A721-582B-4D24-A6EA-61BA4DB14EB4}">
       <text>
         <r>
           <rPr>
@@ -907,6 +907,1011 @@
             <charset val="129"/>
           </rPr>
           <t>메모로</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{46EDF528-0B5C-4AE1-88AB-62C70F7D40E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝까지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{EB2DD0F8-F326-4C87-8BAF-4B5E4A4B68EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기록용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{972414C3-9023-45FF-ABFD-37944CB94945}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝까지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{74E1C7D0-DA4C-483F-B38E-796BC412A301}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>속도가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(or </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가속도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{43B7FEF8-CAD0-4626-BFA7-9FFAB0DA8271}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝까지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{17969521-CB91-459B-9957-2A9E4678E1A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>속도가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(or </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가속도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{76BF96EA-D87D-46BA-8412-B28EED198046}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝까지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{D24109B7-7D7A-4908-894F-1EA13409236B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소닉의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한높이가
+높아진다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{B9AA78BB-B839-4560-A3A1-99435EA4C15E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝까지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{64E57705-DF3C-4D52-B952-D0C3040BDADC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중간</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장
+사망시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">저장위치부터
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{62489123-90EB-4405-97D3-1666D6A4CA0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝까지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{A2459721-522A-452E-97F9-F85EC10FC35F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기록용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">증가
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{116583BE-6EF1-4D20-8DF4-EC925CDA2955}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝까지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{F642F23F-32C5-4A55-A7B7-04FEF4FAC357}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소닉의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한높이가
+높아진다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{63C71FA2-B5D3-4607-88B9-5E5EA752511A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝까지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{94CB98D9-2BDD-4556-8CD5-13A3ED2D3C6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위치로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동가능</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{86E5C22A-8AF5-4003-B9B6-049F25E29BCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝까지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{1EBC6DA8-D797-487D-B821-3914B51C2AC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기록용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>점수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>감소</t>
         </r>
       </text>
     </comment>
@@ -915,7 +1920,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1048,6 +2053,74 @@
   </si>
   <si>
     <t>오브젝트 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단 점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부스터 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중 훌라후프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높이 한계점 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순간 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +2256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1202,8 +2275,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1374,21 +2453,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashDotDot">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -1530,13 +2594,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,156 +2684,132 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1753,16 +2819,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1772,6 +2832,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1786,22 +2861,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1819,10 +2915,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2124,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F371A91-ED18-4229-A4BC-DA68F4EEEAC8}">
   <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2135,16 +3227,16 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="11"/>
       <c r="K2" s="16"/>
       <c r="L2" s="13"/>
@@ -2155,14 +3247,14 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="11"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -2173,7 +3265,7 @@
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -2229,16 +3321,16 @@
       <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="69"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="13"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -2249,14 +3341,14 @@
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="77"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="70"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="13"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -2267,14 +3359,14 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="78"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="71"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="13"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -2294,7 +3386,7 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="88">
         <v>4</v>
       </c>
       <c r="F9" s="3">
@@ -2319,16 +3411,16 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="13"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -2339,14 +3431,14 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="77"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="13"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -2357,14 +3449,14 @@
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="78"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="13"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -2384,7 +3476,7 @@
       <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="88">
         <v>11</v>
       </c>
       <c r="F13" s="3">
@@ -2409,16 +3501,16 @@
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="14"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -2429,14 +3521,14 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B15" s="80"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="15"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -2447,14 +3539,14 @@
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="81"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="15"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -2499,16 +3591,16 @@
       <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="13"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -2519,14 +3611,14 @@
       <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B19" s="77"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="13"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -2537,14 +3629,14 @@
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="78"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="13"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -2589,16 +3681,16 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="13"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -2609,14 +3701,14 @@
       <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B23" s="77"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="13"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -2627,14 +3719,14 @@
       <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="78"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="13"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -2679,16 +3771,16 @@
       <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -2699,14 +3791,14 @@
       <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B27" s="77"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -2717,14 +3809,14 @@
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="78"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -2761,36 +3853,36 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="77"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
     </row>
     <row r="32" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="78"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
     </row>
     <row r="33" spans="2:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
@@ -2819,36 +3911,36 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="77"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
     </row>
     <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="78"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="56"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="48"/>
     </row>
     <row r="37" spans="2:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
@@ -2877,36 +3969,36 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="42"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="84"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
     </row>
     <row r="40" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="85"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="56"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="48"/>
     </row>
     <row r="41" spans="2:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
@@ -2925,11 +4017,11 @@
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="66"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -2937,9 +4029,9 @@
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="86"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="67"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2947,9 +4039,9 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="87"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="68"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -2959,18 +4051,18 @@
     <row r="45" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B2:I3"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:G8"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B42:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2982,206 +4074,294 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8D7D90-55CE-4844-9181-83EA44D96D74}">
   <dimension ref="C1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="H2" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
     </row>
     <row r="3" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="H3" s="25" t="s">
+      <c r="F3" s="87"/>
+      <c r="H3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="26"/>
+      <c r="J3" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="87"/>
     </row>
     <row r="4" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="C4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="90"/>
+      <c r="H4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="C5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="90"/>
+      <c r="H5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
+      <c r="C6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="90"/>
+      <c r="H6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
+      <c r="C7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="90"/>
+      <c r="H7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="H8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="3:11" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="34">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/default.xlsx
+++ b/default.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leemc\Desktop\winter_project\winter_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\바탕 화면\winter_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2A706-5831-4201-B202-17A0FCB31AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8211A32-5F6D-43E2-A10F-7E201C35BCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D6481C0E-EF3D-4FD9-AA7F-237F671F16F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D6481C0E-EF3D-4FD9-AA7F-237F671F16F5}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -1920,7 +1920,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2121,6 +2121,39 @@
   </si>
   <si>
     <t>점수 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터
++ 카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 + 마우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2131,7 +2164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2255,6 +2288,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2626,7 +2680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2693,18 +2747,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2726,27 +2774,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2825,13 +2864,67 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2849,55 +2942,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3216,27 +3276,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F371A91-ED18-4229-A4BC-DA68F4EEEAC8}">
   <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="81" t="s">
+    <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="11"/>
       <c r="K2" s="16"/>
       <c r="L2" s="13"/>
@@ -3246,15 +3306,15 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
+    <row r="3" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="11"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -3264,7 +3324,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>28</v>
       </c>
@@ -3298,7 +3358,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
@@ -3320,17 +3380,17 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="66" t="s">
+    <row r="6" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="61"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="13"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -3340,15 +3400,15 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="67"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="76"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="62"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="13"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -3358,15 +3418,15 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="68"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="63"/>
+    <row r="8" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="77"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="13"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -3376,7 +3436,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -3386,7 +3446,7 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="61">
         <v>4</v>
       </c>
       <c r="F9" s="3">
@@ -3410,17 +3470,27 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
+    <row r="10" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="13"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -3430,15 +3500,25 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="67"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="76"/>
+      <c r="C11" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="13"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -3448,15 +3528,15 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="68"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+    <row r="12" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="77"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="13"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -3466,7 +3546,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -3476,7 +3556,7 @@
       <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="61">
         <v>11</v>
       </c>
       <c r="F13" s="3">
@@ -3500,17 +3580,25 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="74" t="s">
+    <row r="14" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="90" t="s">
+        <v>55</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -3520,15 +3608,23 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B15" s="75"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="73"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>56</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -3538,15 +3634,23 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="76"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
+    <row r="16" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="74"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>57</v>
+      </c>
       <c r="J16" s="15"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3556,7 +3660,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -3590,17 +3694,17 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="77" t="s">
+    <row r="18" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="13"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3610,15 +3714,15 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B19" s="67"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="76"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="13"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -3628,15 +3732,15 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="68"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
+    <row r="20" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="77"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="13"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -3646,7 +3750,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3680,17 +3784,17 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="77" t="s">
+    <row r="22" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="13"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -3700,15 +3804,15 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B23" s="67"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="76"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="13"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3718,15 +3822,15 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="68"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
+    <row r="24" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="77"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
       <c r="J24" s="13"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3736,7 +3840,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3770,17 +3874,17 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="66" t="s">
+    <row r="26" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -3790,15 +3894,15 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B27" s="67"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="76"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -3808,15 +3912,15 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="68"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57"/>
+    <row r="28" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="77"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -3826,7 +3930,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
@@ -3852,39 +3956,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="66" t="s">
+    <row r="30" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="67"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-    </row>
-    <row r="32" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="68"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="48"/>
-    </row>
-    <row r="33" spans="2:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="76"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
+    </row>
+    <row r="32" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="77"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
@@ -3910,39 +4014,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="66" t="s">
+    <row r="34" spans="2:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="67"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
-    </row>
-    <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="68"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="48"/>
-    </row>
-    <row r="37" spans="2:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="76"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
+    </row>
+    <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="77"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
@@ -3968,39 +4072,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="69" t="s">
+    <row r="38" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="70"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="45"/>
-    </row>
-    <row r="40" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="71"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="48"/>
-    </row>
-    <row r="41" spans="2:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="83"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="84"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+    </row>
+    <row r="41" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
@@ -4016,41 +4120,46 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="72" t="s">
+    <row r="42" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="58"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="72"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="59"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="85"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="73"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="60"/>
+    <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="86"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="B2:I3"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B18:B20"/>
@@ -4058,11 +4167,6 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:G8"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B42:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4075,271 +4179,280 @@
   <dimension ref="C1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J4" sqref="J4:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="87" t="s">
+    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="H2" s="87" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="H2" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-    </row>
-    <row r="3" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+    </row>
+    <row r="3" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="89"/>
       <c r="H3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="87"/>
-    </row>
-    <row r="4" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="89"/>
+    </row>
+    <row r="4" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="90"/>
+      <c r="F4" s="88"/>
       <c r="H4" s="20" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="90"/>
-    </row>
-    <row r="5" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K4" s="88"/>
+    </row>
+    <row r="5" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="90"/>
+      <c r="F5" s="88"/>
       <c r="H5" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="90"/>
-    </row>
-    <row r="6" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K5" s="88"/>
+    </row>
+    <row r="6" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="90"/>
+      <c r="F6" s="88"/>
       <c r="H6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="90"/>
-    </row>
-    <row r="7" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K6" s="88"/>
+    </row>
+    <row r="7" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="90"/>
+      <c r="F7" s="88"/>
       <c r="H7" s="20" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="90"/>
-    </row>
-    <row r="8" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="88"/>
+    </row>
+    <row r="8" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
       <c r="H8" s="20" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="J8" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="90"/>
-    </row>
-    <row r="9" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K8" s="88"/>
+    </row>
+    <row r="9" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
       <c r="H9" s="20"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-    </row>
-    <row r="10" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+    </row>
+    <row r="10" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
       <c r="H10" s="20"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-    </row>
-    <row r="11" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+    </row>
+    <row r="11" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
       <c r="H11" s="20"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-    </row>
-    <row r="12" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+    </row>
+    <row r="12" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
       <c r="H12" s="20"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-    </row>
-    <row r="13" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+    </row>
+    <row r="13" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
       <c r="H13" s="20"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-    </row>
-    <row r="14" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+    </row>
+    <row r="14" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
       <c r="H14" s="20"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-    </row>
-    <row r="15" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+    </row>
+    <row r="15" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
       <c r="H15" s="20"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-    </row>
-    <row r="16" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+    </row>
+    <row r="16" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-    </row>
-    <row r="17" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+    </row>
+    <row r="17" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
       <c r="H17" s="20"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-    </row>
-    <row r="18" spans="3:11" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+    </row>
+    <row r="18" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-    </row>
-    <row r="19" spans="3:11" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+    </row>
+    <row r="19" spans="3:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
@@ -4347,21 +4460,12 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
